--- a/public/templet/bill.xlsx
+++ b/public/templet/bill.xlsx
@@ -16,33 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>语音通信费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信彩信费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网及数据通信费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合信息服务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>用户号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音通信费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信彩信费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上网及数据通信费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合信息服务费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州晨鸟2016年3月账单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -64,12 +68,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -109,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,56 +405,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
